--- a/Growth abnormality_v1.0.xlsx
+++ b/Growth abnormality_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0048362-FEF6-2E4F-8F0D-5A2035DB3072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C41D9E-70AF-6E45-9D3F-FF60BA7F1B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31840" yWindow="2100" windowWidth="28920" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>orig_entry</t>
   </si>
@@ -230,6 +230,204 @@
   </si>
   <si>
     <t>Decreased body fat percentage</t>
+  </si>
+  <si>
+    <t>腹部逆位</t>
+  </si>
+  <si>
+    <t>腹部閉鎖位</t>
+  </si>
+  <si>
+    <t>左房異型症</t>
+  </si>
+  <si>
+    <t>右房異数性</t>
+  </si>
+  <si>
+    <t>気管支異数性</t>
+  </si>
+  <si>
+    <t>過剰成長</t>
+  </si>
+  <si>
+    <t>下肢半低身長症</t>
+  </si>
+  <si>
+    <t>上肢半身異栄養症</t>
+  </si>
+  <si>
+    <t>下肢半身肥大</t>
+  </si>
+  <si>
+    <t>下肢半側肥大症</t>
+  </si>
+  <si>
+    <t>上肢半身肥大</t>
+  </si>
+  <si>
+    <t>ウエスト・ヒップ比増加</t>
+  </si>
+  <si>
+    <t>ウエスト／ヒップ比低下</t>
+  </si>
+  <si>
+    <t>妊娠月齢に比して大きい</t>
+  </si>
+  <si>
+    <t>過体重</t>
+  </si>
+  <si>
+    <t>II度肥満</t>
+  </si>
+  <si>
+    <t>III度肥満</t>
+  </si>
+  <si>
+    <t>腹部肥満</t>
+  </si>
+  <si>
+    <t>I度肥満</t>
+  </si>
+  <si>
+    <t>小児期発症の三頭筋肥満</t>
+  </si>
+  <si>
+    <t>細身体型</t>
+  </si>
+  <si>
+    <t>反復性感染症による二次性発育不全</t>
+  </si>
+  <si>
+    <t>重症成長障害</t>
+  </si>
+  <si>
+    <t>乳児期の発育不全</t>
+  </si>
+  <si>
+    <t>肥満度の低下</t>
+  </si>
+  <si>
+    <t>妊娠月齢に比して小さい</t>
+  </si>
+  <si>
+    <t>悪液質</t>
+  </si>
+  <si>
+    <t>肥満度の増加</t>
+  </si>
+  <si>
+    <t>上腕三頭筋皮下脂肪厚の増加</t>
+  </si>
+  <si>
+    <t>非対称性低身長</t>
+  </si>
+  <si>
+    <t>新生児短躯性低身長</t>
+  </si>
+  <si>
+    <t>乳児期発症型体幹短小</t>
+  </si>
+  <si>
+    <t>致死性体幹短小</t>
+  </si>
+  <si>
+    <t>小児期発症短躯性低身長症</t>
+  </si>
+  <si>
+    <t>致死性四肢短縮型低身長症</t>
+  </si>
+  <si>
+    <t>メソメリック性低身長症</t>
+  </si>
+  <si>
+    <t>新生児短肢性低身長症</t>
+  </si>
+  <si>
+    <t>リゾ-メソ-アクロメリック四肢短縮症</t>
+  </si>
+  <si>
+    <t>リゾメリック腕短縮症</t>
+  </si>
+  <si>
+    <t>メソメリック/リゾメリック四肢短縮症</t>
+  </si>
+  <si>
+    <t>リゾメリック下肢短縮症</t>
+  </si>
+  <si>
+    <t>重症短下肢小人症</t>
+  </si>
+  <si>
+    <t>小児期発症短下肢小人症</t>
+  </si>
+  <si>
+    <t>重症低身長症</t>
+  </si>
+  <si>
+    <t>軽度低身長</t>
+  </si>
+  <si>
+    <t>中等度低身長</t>
+  </si>
+  <si>
+    <t>下垂体性小人症</t>
+  </si>
+  <si>
+    <t>出生時の体長が3パーセンタイル未満</t>
+  </si>
+  <si>
+    <t>過成長</t>
+  </si>
+  <si>
+    <t>比例高身長</t>
+  </si>
+  <si>
+    <t>出生時の体長が97パーセンタイル以上</t>
+  </si>
+  <si>
+    <t>不釣り合いな高身長</t>
+  </si>
+  <si>
+    <t>上位下位比の増加</t>
+  </si>
+  <si>
+    <t>上下肢節比の減少</t>
+  </si>
+  <si>
+    <t>成長ホルモンなしでの成長</t>
+  </si>
+  <si>
+    <t>体脂肪率の増加</t>
+  </si>
+  <si>
+    <t>初潮の遅れ</t>
+  </si>
+  <si>
+    <t>副初期の遅延</t>
+  </si>
+  <si>
+    <t>中等度の子宮内発育遅延</t>
+  </si>
+  <si>
+    <t>軽度の子宮内発育遅延</t>
+  </si>
+  <si>
+    <t>重度の子宮内発育遅延</t>
+  </si>
+  <si>
+    <t>軽度の出生後発育遅延</t>
+  </si>
+  <si>
+    <t>中等度の出生後発育遅延</t>
+  </si>
+  <si>
+    <t>重度の出生後発育遅延</t>
+  </si>
+  <si>
+    <t>思春期成長スパートの欠如</t>
+  </si>
+  <si>
+    <t>体脂肪率の低下</t>
   </si>
   <si>
     <t>Disease name</t>
@@ -1211,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1225,7 +1423,7 @@
     <col min="7" max="7" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1233,19 +1431,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>3363</v>
       </c>
@@ -1261,8 +1459,11 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>31565</v>
       </c>
@@ -1278,8 +1479,11 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>11537</v>
       </c>
@@ -1295,8 +1499,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>11536</v>
       </c>
@@ -1312,8 +1519,11 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>31564</v>
       </c>
@@ -1329,8 +1539,11 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>33794</v>
       </c>
@@ -1343,8 +1556,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>200053</v>
       </c>
@@ -1357,8 +1573,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>100558</v>
       </c>
@@ -1371,8 +1590,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>100557</v>
       </c>
@@ -1385,8 +1607,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>100553</v>
       </c>
@@ -1399,8 +1624,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>100554</v>
       </c>
@@ -1413,8 +1641,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>31819</v>
       </c>
@@ -1427,8 +1658,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>31820</v>
       </c>
@@ -1441,8 +1675,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1520</v>
       </c>
@@ -1458,8 +1695,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>25502</v>
       </c>
@@ -1472,8 +1712,11 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>25500</v>
       </c>
@@ -1486,8 +1729,11 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>25501</v>
       </c>
@@ -1500,8 +1746,11 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>12743</v>
       </c>
@@ -1514,8 +1763,11 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>25499</v>
       </c>
@@ -1528,8 +1780,11 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>8915</v>
       </c>
@@ -1542,8 +1797,11 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1533</v>
       </c>
@@ -1556,8 +1814,11 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>8866</v>
       </c>
@@ -1570,8 +1831,11 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1525</v>
       </c>
@@ -1585,8 +1849,11 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1531</v>
       </c>
@@ -1600,8 +1867,11 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>45082</v>
       </c>
@@ -1615,8 +1885,11 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>1518</v>
       </c>
@@ -1630,8 +1903,11 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>3782</v>
       </c>
@@ -1646,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>4326</v>
       </c>
@@ -1659,8 +1935,11 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>31418</v>
       </c>
@@ -1673,8 +1952,11 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>33172</v>
       </c>
@@ -1687,8 +1969,11 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>8929</v>
       </c>
@@ -1704,8 +1989,11 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>8857</v>
       </c>
@@ -1721,8 +2009,11 @@
       <c r="F33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>11406</v>
       </c>
@@ -1738,8 +2029,11 @@
       <c r="F34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>11404</v>
       </c>
@@ -1758,8 +2052,11 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>8922</v>
       </c>
@@ -1775,8 +2072,11 @@
       <c r="F36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8909</v>
       </c>
@@ -1795,8 +2095,11 @@
       <c r="F37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>8845</v>
       </c>
@@ -1812,8 +2115,11 @@
       <c r="F38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>8921</v>
       </c>
@@ -1829,8 +2135,11 @@
       <c r="F39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>5069</v>
       </c>
@@ -1846,8 +2155,11 @@
       <c r="F40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>4991</v>
       </c>
@@ -1863,8 +2175,11 @@
       <c r="F41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>5026</v>
       </c>
@@ -1880,8 +2195,11 @@
       <c r="F42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>12106</v>
       </c>
@@ -1897,8 +2215,11 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>8890</v>
       </c>
@@ -1914,8 +2235,11 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>11405</v>
       </c>
@@ -1931,8 +2255,11 @@
       <c r="F45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>3510</v>
       </c>
@@ -1945,8 +2272,11 @@
       <c r="F46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>3502</v>
       </c>
@@ -1959,8 +2289,11 @@
       <c r="F47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>8848</v>
       </c>
@@ -1973,8 +2306,11 @@
       <c r="F48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>839</v>
       </c>
@@ -1987,8 +2323,11 @@
       <c r="F49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>3561</v>
       </c>
@@ -2001,8 +2340,11 @@
       <c r="F50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>1548</v>
       </c>
@@ -2015,8 +2357,11 @@
       <c r="F51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>11407</v>
       </c>
@@ -2029,8 +2374,11 @@
       <c r="F52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>3517</v>
       </c>
@@ -2043,8 +2391,11 @@
       <c r="F53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>1519</v>
       </c>
@@ -2057,8 +2408,11 @@
       <c r="F54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>12774</v>
       </c>
@@ -2071,8 +2425,11 @@
       <c r="F55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>12773</v>
       </c>
@@ -2085,8 +2442,11 @@
       <c r="F56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>33795</v>
       </c>
@@ -2099,8 +2459,11 @@
       <c r="F57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>25521</v>
       </c>
@@ -2113,8 +2476,11 @@
       <c r="F58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>12569</v>
       </c>
@@ -2128,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>25515</v>
       </c>
@@ -2141,8 +2507,11 @@
       <c r="F60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>25453</v>
       </c>
@@ -2155,8 +2524,11 @@
       <c r="F61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>11408</v>
       </c>
@@ -2169,8 +2541,11 @@
       <c r="F62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>8883</v>
       </c>
@@ -2183,8 +2558,11 @@
       <c r="F63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>8846</v>
       </c>
@@ -2197,8 +2575,11 @@
       <c r="F64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>1530</v>
       </c>
@@ -2211,8 +2592,11 @@
       <c r="F65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>8855</v>
       </c>
@@ -2225,8 +2609,11 @@
       <c r="F66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>8850</v>
       </c>
@@ -2239,8 +2626,11 @@
       <c r="F67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>31087</v>
       </c>
@@ -2253,8 +2643,11 @@
       <c r="F68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>41079</v>
       </c>
@@ -2266,6 +2659,9 @@
       </c>
       <c r="F69" s="1">
         <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
